--- a/summary/testing_history.xlsx
+++ b/summary/testing_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,14 +480,47 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>U</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>9709</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Too smart a monkey to receive such a score</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Too dumb a human to perform so poor</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>E</t>
         </is>
       </c>
     </row>

--- a/summary/testing_history.xlsx
+++ b/summary/testing_history.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,35 +424,40 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Exam Paper Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Syllabus Code</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Component Number</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Strengths of the Student</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Weaknesses of the Student</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Total Marks Attained</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Maximum Total Marks Available</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Grade Achieved</t>
         </is>
@@ -461,31 +466,36 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>9709_12_2024_MayJune_Mathematics_qp.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>9709</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Too smart a monkey to receive such a score</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Too dumb a human to perform so poor</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>12</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>U</t>
         </is>
@@ -494,33 +504,38 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>9709_12_2024_MayJune_Mathematics_qp_with_less_answers.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>9709</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Too smart a monkey to receive such a score</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Too dumb a human to perform so poor</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>15</v>
+          <t>Strong algebraic manipulation and trigonometric skills; good use of calculus (differentiation and integration) including chain rule and definite integrals; sequences and series handled accurately; coordinate geometry and circle/tangent questions well executed; geometry/trigonometry area/perimeter problems correctly structured and evaluated; rate-of-change problem solved cleanly.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Occasional difficulty with inequalities and determining intervals for monotonicity (Q9(a)); composition and inverse-function problem (Q4(c)) was missed; some confusion in constructing the perpendicular bisector with correct points and gradient (Q10(b)); presentation and clarity of reasoning could be improved to aid marking, especially in transformation descriptions and multi-step geometry proofs.</t>
+        </is>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>E</t>
+        <v>67</v>
+      </c>
+      <c r="G3" t="n">
+        <v>75</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A</t>
         </is>
       </c>
     </row>

--- a/summary/testing_history.xlsx
+++ b/summary/testing_history.xlsx
@@ -481,23 +481,23 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Too smart a monkey to receive such a score</t>
+          <t>Strong on transformations and composition (Q2), trigonometric manipulation and solving (Q3), inverse functions and composite functions (Q4), geometric and arithmetic progressions (Q5b), differentiation and integration including use of limits (Q6, Q9b, Q10a), and circle geometry with tangents (Q7). Working generally clear and follows required methods.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Too dumb a human to perform so poor</t>
+          <t>Occasional algebraic/numerical accuracy slips leading to wrong final values (Q1 binomial coefficient, Q5a sum of AP, Q8b perimeter equation solved inaccurately, Q10b perpendicular bisector). Some inconsistency in deciding increasing/decreasing intervals (Q9a). Perpendicular bisector method and presentation of gradients/midpoint need more care. Ensure final answers are clearly stated and checked for reasonableness; show key intermediate values explicitly where required by the mark scheme.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -519,16 +519,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Strong algebraic manipulation and trigonometric skills; good use of calculus (differentiation and integration) including chain rule and definite integrals; sequences and series handled accurately; coordinate geometry and circle/tangent questions well executed; geometry/trigonometry area/perimeter problems correctly structured and evaluated; rate-of-change problem solved cleanly.</t>
+          <t>Strong use of calculus (differentiation/chain rule), series (AP/GP sums), integration with definite integrals and limits, and coordinate geometry. Trigonometric equation solving to final angles was correct. Good handling of inverse functions and function range concepts.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Occasional difficulty with inequalities and determining intervals for monotonicity (Q9(a)); composition and inverse-function problem (Q4(c)) was missed; some confusion in constructing the perpendicular bisector with correct points and gradient (Q10(b)); presentation and clarity of reasoning could be improved to aid marking, especially in transformation descriptions and multi-step geometry proofs.</t>
+          <t>Transformation descriptions sometimes lacked clear order; occasional algebraic slips (e.g. Q8(b) perimeter leading to incorrect r). In Q9(a) sign/interval reasoning led to an incorrect final interval. In Q10(b) an incorrect y-value for point B propagated through the perpendicular bisector; final equation not simplified to ax+by+c=0. Careful checking of values and clarity of statements would improve accuracy.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G3" t="n">
         <v>75</v>

--- a/summary/testing_history.xlsx
+++ b/summary/testing_history.xlsx
@@ -466,7 +466,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>9709_12_2024_MayJune_Mathematics_qp.xlsx</t>
+          <t>9709_12_2024_MayJune_Mathematics_qp_first_try.xlsx</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -481,30 +481,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Strong on transformations and composition (Q2), trigonometric manipulation and solving (Q3), inverse functions and composite functions (Q4), geometric and arithmetic progressions (Q5b), differentiation and integration including use of limits (Q6, Q9b, Q10a), and circle geometry with tangents (Q7). Working generally clear and follows required methods.</t>
+          <t>Candidate shows strong skills in trigonometric identities, infinite series, implicit integration and constructing perpendicular bisectors. Good at follow-through to equation of curves and summation formulas.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Occasional algebraic/numerical accuracy slips leading to wrong final values (Q1 binomial coefficient, Q5a sum of AP, Q8b perimeter equation solved inaccurately, Q10b perpendicular bisector). Some inconsistency in deciding increasing/decreasing intervals (Q9a). Perpendicular bisector method and presentation of gradients/midpoint need more care. Ensure final answers are clearly stated and checked for reasonableness; show key intermediate values explicitly where required by the mark scheme.</t>
+          <t>Candidate struggled with initial binomial coefficient question, describing combined transformations, solving composite function inversion (Q4c) and perimeter application in Q8b. Errors in differentiation application (Q10a) and domain intervals in Q9a.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G2" t="n">
         <v>75</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9709_12_2024_MayJune_Mathematics_qp_with_less_answers.xlsx</t>
+          <t>9709_12_2024_MayJune_Mathematics_qp_second_try.xlsx</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -519,16 +519,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Strong use of calculus (differentiation/chain rule), series (AP/GP sums), integration with definite integrals and limits, and coordinate geometry. Trigonometric equation solving to final angles was correct. Good handling of inverse functions and function range concepts.</t>
+          <t>Good facility with transformations (Q2), trigonometric and binomial manipulation in solving equations (Q3), inverse functions (Q4), series sums (Q5), differentiation and rate problems (Q6(a),Q10(a)), circle geometry for tangents and diameters (Q7), and sector/area calculations (Q8).</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Transformation descriptions sometimes lacked clear order; occasional algebraic slips (e.g. Q8(b) perimeter leading to incorrect r). In Q9(a) sign/interval reasoning led to an incorrect final interval. In Q10(b) an incorrect y-value for point B propagated through the perpendicular bisector; final equation not simplified to ax+by+c=0. Careful checking of values and clarity of statements would improve accuracy.</t>
+          <t>Errors in equating coefficients in the binomial question (Q1), area between curve and line (Q6(b)), solving inequalities for monotonicity (Q9(a)), and construction of the perpendicular bisector (Q10(b)).</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G3" t="n">
         <v>75</v>
